--- a/medicine/Bioéthique/Roberto_Andorno/Roberto_Andorno.xlsx
+++ b/medicine/Bioéthique/Roberto_Andorno/Roberto_Andorno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Andorno, né le 16 août 1961 à Santa Fe en Argentine, est un juriste et écrivain argentin, docteur en droit, spécialisé dans les questions de bioéthique et professeur associé à la Faculté de droit de l'université de Zurich (Suisse).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa thèse doctorale, soutenue en 1994 à l'Université Paris XII[1], portait sur la distinction entre les personnes et les choses à l’épreuve des procréations assistées. Après un périple académique l’ayant mené de l'université de Buenos Aires (1994-1998) à la Faculté de philosophie de l'Université Laval de Québec (1999), il a été chercheur en Allemagne auprès des universités de Göttingen (2001-2003) et de Tübingen[2] (2004-2005).
-Membre du Comité international de bioéthique de l'UNESCO entre 1998 et 2005, il a participé aux travaux de rédaction de la Déclaration internationale sur les données génétiques humaines de 2003[3] et de la Déclaration universelle sur la bioéthique et les droits de l'homme de 2005[4]. Depuis 2005 il est chercheur auprès de l'Institut d'éthique biomédicale de l'université de Zurich. Depuis 2011, il est professeur associé à la Faculté de droit de l'université de Zurich (Suisse)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa thèse doctorale, soutenue en 1994 à l'Université Paris XII, portait sur la distinction entre les personnes et les choses à l’épreuve des procréations assistées. Après un périple académique l’ayant mené de l'université de Buenos Aires (1994-1998) à la Faculté de philosophie de l'Université Laval de Québec (1999), il a été chercheur en Allemagne auprès des universités de Göttingen (2001-2003) et de Tübingen (2004-2005).
+Membre du Comité international de bioéthique de l'UNESCO entre 1998 et 2005, il a participé aux travaux de rédaction de la Déclaration internationale sur les données génétiques humaines de 2003 et de la Déclaration universelle sur la bioéthique et les droits de l'homme de 2005. Depuis 2005 il est chercheur auprès de l'Institut d'éthique biomédicale de l'université de Zurich. Depuis 2011, il est professeur associé à la Faculté de droit de l'université de Zurich (Suisse).
 </t>
         </is>
       </c>
